--- a/UNCONS_holdings.xlsx
+++ b/UNCONS_holdings.xlsx
@@ -44,7 +44,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005273566249176076</v>
+        <v>-0.002622950819672121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005273566249176076</v>
+        <v>-0.002622950819672121</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/UNCONS_holdings.xlsx
+++ b/UNCONS_holdings.xlsx
@@ -44,7 +44,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002622950819672121</v>
+        <v>-0.003939592908732803</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002622950819672121</v>
+        <v>-0.003939592908732803</v>
       </c>
     </row>
     <row r="6" spans="1:5">
